--- a/results/I3_N5_M2_T15_C150_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1835.909519245971</v>
+        <v>167.3630522705333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7300000190734863</v>
+        <v>0.3249998092651367</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39770858716315</v>
+        <v>19.36305227053332</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.577613721879178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.959424380494099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>989.9100000001927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.22</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,116 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -777,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -970,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.021751107877691</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.798343757406247</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.4209502266672</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.837257427557379</v>
+        <v>12.73386173754264</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,216 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>230.9300000000002</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>240.5300000000006</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>245.3850000000093</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>248.4050000000042</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>245.8150000000132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>162.755000000061</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>164.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>169.5450000000583</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>171.495000000059</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>169.965000000062</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.5600000000632</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.4100000000617</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.7300000000578</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9400000000569</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08000000001266</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84000000001106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000001115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.82000000001062</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22000000001026</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.38000000001012</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.36000000000968</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.62000000000808</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.06000000001222</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.26000000001113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>230.9299999999584</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>240.5299999999569</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>245.3849999999711</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>248.4049999999606</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>245.8149999999713</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>156.5600000000886</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.410000000089</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.7300000000851</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>155.9400000000806</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>80.92999999995118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>90.52999999994972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>95.38499999996384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>98.40499999995336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>95.81499999996413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.560000000081345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.41000000008171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.73000000007778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.940000000073269</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2233,171 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
